--- a/Evidencia2/Reforma actualizada.xlsx
+++ b/Evidencia2/Reforma actualizada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tec\Semestre 2023-2\Modelación de sistemas multiagentes con gráficas computacionales\Mesa\Evidencia2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0208DC-890A-4C0D-AC5F-8AFA498A329B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5657D1A6-AC63-4D4D-9E0E-861D8CE6EBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{788B195C-3E11-4BC7-9EB3-D3C7D1BBBDC6}"/>
   </bookViews>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A013DA3-35B6-4A1B-84A6-5C77F63E37F7}">
   <dimension ref="B4:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="M11" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Evidencia2/Reforma actualizada.xlsx
+++ b/Evidencia2/Reforma actualizada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tec\Semestre 2023-2\Modelación de sistemas multiagentes con gráficas computacionales\Mesa\Evidencia2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5657D1A6-AC63-4D4D-9E0E-861D8CE6EBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB1CB6D-4F53-4DA5-9703-46B5999D0517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{788B195C-3E11-4BC7-9EB3-D3C7D1BBBDC6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="271">
   <si>
     <t>(14, 21)</t>
   </si>
@@ -840,6 +840,15 @@
   </si>
   <si>
     <t>(9, 24)</t>
+  </si>
+  <si>
+    <t>&lt;-</t>
+  </si>
+  <si>
+    <t>-&gt;'</t>
+  </si>
+  <si>
+    <t>^</t>
   </si>
 </sst>
 </file>
@@ -973,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -990,6 +999,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1302,12 +1312,32 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B1C32D58-C6CC-4919-B484-6D9A03EDD083}">
+  <we:reference id="8bc018e3-f345-40d4-8f1d-97951765d531" version="1.5.0.0" store="EXCatalog" storeType="EXCatalog"/>
+  <we:alternateReferences>
+    <we:reference id="WA104380862" version="1.5.0.0" store="en-US" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A013DA3-35B6-4A1B-84A6-5C77F63E37F7}">
   <dimension ref="B4:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M11" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1493,9 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
@@ -1511,7 +1543,9 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
@@ -1548,7 +1582,9 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="4"/>
+      <c r="AC8" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
@@ -1593,7 +1629,9 @@
       <c r="W9" s="1"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="4"/>
+      <c r="Z9" s="16" t="s">
+        <v>269</v>
+      </c>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -1641,7 +1679,9 @@
       <c r="W10" s="1"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="4"/>
+      <c r="Z10" s="16" t="s">
+        <v>269</v>
+      </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -1751,7 +1791,9 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
@@ -1785,7 +1827,9 @@
       <c r="W13" s="1"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="4"/>
+      <c r="Z13" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="1"/>
@@ -2291,7 +2335,9 @@
       <c r="W24" s="1"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="4"/>
+      <c r="Z24" s="16" t="s">
+        <v>269</v>
+      </c>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -2489,7 +2535,9 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="16" t="s">
+        <v>269</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="1"/>
@@ -2521,7 +2569,9 @@
       <c r="W29" s="1"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="4"/>
+      <c r="Z29" s="16" t="s">
+        <v>269</v>
+      </c>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -2535,7 +2585,9 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="16" t="s">
+        <v>269</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
@@ -2567,7 +2619,9 @@
       <c r="W30" s="1"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="4"/>
+      <c r="Z30" s="16" t="s">
+        <v>269</v>
+      </c>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -2797,7 +2851,9 @@
       <c r="W35" s="1"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
+      <c r="Z35" s="16" t="s">
+        <v>269</v>
+      </c>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
@@ -2903,7 +2959,9 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="1"/>
@@ -2935,7 +2993,9 @@
       <c r="W38" s="1"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
+      <c r="Z38" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
@@ -2949,7 +3009,9 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="1"/>
@@ -2981,7 +3043,9 @@
       <c r="W39" s="1"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
+      <c r="Z39" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>

--- a/Evidencia2/Reforma actualizada.xlsx
+++ b/Evidencia2/Reforma actualizada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tec\Semestre 2023-2\Modelación de sistemas multiagentes con gráficas computacionales\Mesa\Evidencia2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB1CB6D-4F53-4DA5-9703-46B5999D0517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4252FF-8FA2-49BF-9366-EA4D858AE4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{788B195C-3E11-4BC7-9EB3-D3C7D1BBBDC6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="271">
   <si>
     <t>(14, 21)</t>
   </si>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A013DA3-35B6-4A1B-84A6-5C77F63E37F7}">
   <dimension ref="B4:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1443,9 @@
         <v>40</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
@@ -2395,7 +2397,9 @@
         <v>20</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
@@ -2866,7 +2870,9 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -2948,7 +2954,9 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="4"/>
+      <c r="AC37" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
